--- a/data/data_out/v2023/nominal_inlet_concentrations.xlsx
+++ b/data/data_out/v2023/nominal_inlet_concentrations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3EC4B-61A9-419D-93CB-922239AC3199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="7">
   <si>
     <t>Maissilage</t>
   </si>
@@ -46,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -62,12 +62,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,13 +75,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,7 +102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -251,7 +253,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -275,9 +277,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -301,7 +303,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -336,7 +338,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -354,7 +356,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -379,7 +381,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -415,77 +417,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="18.5703125" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10.319999999999995</v>
       </c>
       <c r="B2" s="1">
         <v>10.44</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0.23129866666666668</v>
       </c>
       <c r="D2" s="1">
-        <v>8.17</v>
+        <v>8.1699999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>4.5349351805555553</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>2.5203226666666669</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>1.2279948148148148</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -494,21 +497,21 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -517,44 +520,44 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.76400000000000023</v>
       </c>
       <c r="B5" s="1">
         <v>1.5740000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0.18995771515484688</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="E5" s="1">
         <v>1.3031280340259812</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>2.0281167103603295</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>2.1640676866846476</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>662.71361957079466</v>
       </c>
       <c r="B6" s="1">
         <v>682.59018435173164</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>667.00464436811842</v>
       </c>
       <c r="D6" s="1">
@@ -563,21 +566,21 @@
       <c r="E6" s="1">
         <v>919.15968929255757</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>942.47701082389153</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>470.21253131351358</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>239.75428354071201</v>
       </c>
       <c r="B7" s="1">
         <v>199.91295148010289</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>167.78694787650574</v>
       </c>
       <c r="D7" s="1">
@@ -586,21 +589,21 @@
       <c r="E7" s="1">
         <v>20.817968735214624</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>8.8226004103783318</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>75.396568214549362</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>0</v>
       </c>
       <c r="D8" s="1">
@@ -609,21 +612,21 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26.333842200981429</v>
       </c>
       <c r="B9" s="1">
         <v>42.283374455883155</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>10.345210164956748</v>
       </c>
       <c r="D9" s="1">
@@ -632,21 +635,21 @@
       <c r="E9" s="1">
         <v>13.31346486777908</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>11.32285267677546</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>135.13452576473577</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7.9917108172960241</v>
       </c>
       <c r="B10" s="1">
         <v>7.6332516772853012</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>6.0724826212226448</v>
       </c>
       <c r="D10" s="1">
@@ -655,67 +658,67 @@
       <c r="E10" s="1">
         <v>2.0060475565015539</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>2.5141219115647586</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>21.100828374468072</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.30632452321298814</v>
       </c>
       <c r="B11" s="1">
         <v>0.26796236953681524</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>0.30624021510171406</v>
       </c>
       <c r="D11" s="1">
         <v>0.34618229624806601</v>
       </c>
       <c r="E11" s="1">
-        <v>5.8613231636742286E-2</v>
-      </c>
-      <c r="F11">
-        <v>3.9309436628211743E-2</v>
-      </c>
-      <c r="G11">
+        <v>0.058613231636742286</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.039309436628211743</v>
+      </c>
+      <c r="G11" s="0">
         <v>0.33978359198216002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1.6122343326999387E-2</v>
+        <v>0.016122343326999387</v>
       </c>
       <c r="B12" s="1">
-        <v>1.4103282607200802E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.6117906057984955E-2</v>
+        <v>0.014103282607200802</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.016117906057984955</v>
       </c>
       <c r="D12" s="1">
-        <v>1.8220120855161368E-2</v>
+        <v>0.018220120855161368</v>
       </c>
       <c r="E12" s="1">
-        <v>3.0849069282495949E-3</v>
-      </c>
-      <c r="F12">
-        <v>2.0689177172743024E-3</v>
-      </c>
-      <c r="G12">
-        <v>1.7883346946429471E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0030849069282495949</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.0020689177172743024</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.017883346946429471</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14.839513889217828</v>
       </c>
       <c r="B13" s="1">
         <v>35.344163504252222</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>10.637234472182461</v>
       </c>
       <c r="D13" s="1">
@@ -724,44 +727,44 @@
       <c r="E13" s="1">
         <v>19.142172142450544</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>16.144634830622312</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>172.12052975789709</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>-2.8103425053229051E-2</v>
+        <v>-0.028103425053229051</v>
       </c>
       <c r="B14" s="1">
-        <v>-1.5925553426676259E-3</v>
-      </c>
-      <c r="C14">
-        <v>-6.9611095167405896E-3</v>
+        <v>-0.0015925553426676259</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.0069611095167405896</v>
       </c>
       <c r="D14" s="1">
-        <v>1.2272840242716134E-2</v>
+        <v>0.012272840242716134</v>
       </c>
       <c r="E14" s="1">
-        <v>2.3350928384880024E-2</v>
-      </c>
-      <c r="F14">
-        <v>-7.3481070170804866E-2</v>
-      </c>
-      <c r="G14">
+        <v>0.023350928384880024</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.073481070170804866</v>
+      </c>
+      <c r="G14" s="0">
         <v>-0.10270565058149736</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.0197514852036131</v>
       </c>
       <c r="B15" s="1">
         <v>5.4602188493249892</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>0.23077000287972299</v>
       </c>
       <c r="D15" s="1">
@@ -770,21 +773,21 @@
       <c r="E15" s="1">
         <v>4.5341826931733458</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>2.5145621348638612</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>1.2251880697587234</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>0</v>
       </c>
       <c r="D16" s="1">
@@ -793,44 +796,44 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>6.5028181873748111E-6</v>
+        <v>6.5028181873748111e-06</v>
       </c>
       <c r="B17" s="1">
-        <v>1.3396141116357483E-4</v>
-      </c>
-      <c r="C17">
-        <v>6.2258192251246833E-3</v>
+        <v>0.00013396141116357483</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.0062258192251246833</v>
       </c>
       <c r="D17" s="1">
-        <v>7.5007611461861875E-7</v>
+        <v>7.5007611461861875e-07</v>
       </c>
       <c r="E17" s="1">
         <v>0.41528623555071825</v>
       </c>
-      <c r="F17">
-        <v>6.6471045916008914E-2</v>
-      </c>
-      <c r="G17">
-        <v>7.0926807038343156E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="0">
+        <v>0.066471045916008914</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.070926807038343156</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>0</v>
       </c>
       <c r="D18" s="1">
@@ -839,21 +842,21 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="0">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>0</v>
       </c>
       <c r="D19" s="1">
@@ -862,10 +865,10 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="0">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0">
         <v>0</v>
       </c>
     </row>
